--- a/product_image/product_image/상품 텍스트 모음.xlsx
+++ b/product_image/product_image/상품 텍스트 모음.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\상품 샘플이미지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Workspace\Kmarket\product_image\product_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EF0DE5-EC6D-4B53-BA6F-3612D93160FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="29550" yWindow="60" windowWidth="14235" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,11 +476,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,29 +676,29 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,14 +980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -995,7 +996,7 @@
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,23 +1006,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="31.5">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1031,15 +1032,15 @@
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>58100</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="78.75">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1049,217 +1050,217 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>39900</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="78.75">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>38900</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="54">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>58900</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="52.5">
+    <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="78.75">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>2648723454</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>37900</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="78.75">
+    <row r="8" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>57900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="52.5">
+    <row r="9" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3">
         <v>2212098363</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>26600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52.5">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>2159175086</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>49900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="52.5">
+    <row r="11" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>34900</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="80.25">
+    <row r="12" spans="1:14" ht="80.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="3">
         <v>1493559466</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>39900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="52.5">
+    <row r="13" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>49900</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="52.5">
+    <row r="14" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="3">
         <v>2530046200</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>59100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="78.75">
+    <row r="15" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3">
         <v>1655774766</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>32900</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="78.75">
+    <row r="16" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="3">
         <v>2291766763</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>66900</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="78.75">
+    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="3">
         <v>2694502851</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>52000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="52.5">
+    <row r="18" spans="1:4" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="3">
         <v>2621974063</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>25500</v>
       </c>
     </row>
@@ -1269,19 +1270,19 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://minishop.gmarket.co.kr/ecclim0827"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://minishop.gmarket.co.kr/infix8s"/>
-    <hyperlink ref="A6" r:id="rId3" display="http://minishop.gmarket.co.kr/ecclim0827"/>
-    <hyperlink ref="A8" r:id="rId4" display="http://minishop.gmarket.co.kr/webddle01"/>
-    <hyperlink ref="A9" r:id="rId5" display="http://minishop.gmarket.co.kr/kbimall"/>
-    <hyperlink ref="A11" r:id="rId6" display="http://minishop.gmarket.co.kr/webddle01"/>
-    <hyperlink ref="A12" r:id="rId7" display="http://minishop.gmarket.co.kr/dcollect"/>
-    <hyperlink ref="A13" r:id="rId8" display="http://minishop.gmarket.co.kr/dcollect"/>
-    <hyperlink ref="A14" r:id="rId9" display="http://minishop.gmarket.co.kr/EnCnana"/>
-    <hyperlink ref="A15" r:id="rId10" display="http://minishop.gmarket.co.kr/sejungw"/>
-    <hyperlink ref="A16" r:id="rId11" display="http://minishop.gmarket.co.kr/hyungjicom"/>
-    <hyperlink ref="A17" r:id="rId12" display="http://minishop.gmarket.co.kr/lottetv1"/>
-    <hyperlink ref="A18" r:id="rId13" display="http://minishop.gmarket.co.kr/debec"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://minishop.gmarket.co.kr/ecclim0827" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://minishop.gmarket.co.kr/infix8s" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://minishop.gmarket.co.kr/ecclim0827" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" display="http://minishop.gmarket.co.kr/webddle01" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" r:id="rId5" display="http://minishop.gmarket.co.kr/kbimall" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A11" r:id="rId6" display="http://minishop.gmarket.co.kr/webddle01" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" display="http://minishop.gmarket.co.kr/dcollect" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A13" r:id="rId8" display="http://minishop.gmarket.co.kr/dcollect" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A14" r:id="rId9" display="http://minishop.gmarket.co.kr/EnCnana" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A15" r:id="rId10" display="http://minishop.gmarket.co.kr/sejungw" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A16" r:id="rId11" display="http://minishop.gmarket.co.kr/hyungjicom" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A17" r:id="rId12" display="http://minishop.gmarket.co.kr/lottetv1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A18" r:id="rId13" display="http://minishop.gmarket.co.kr/debec" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/product_image/product_image/상품 텍스트 모음.xlsx
+++ b/product_image/product_image/상품 텍스트 모음.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Workspace\Kmarket\product_image\product_image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\Workspace\Kmarket\product_image\product_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EF0DE5-EC6D-4B53-BA6F-3612D93160FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="60" windowWidth="14235" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29550" yWindow="60" windowWidth="14235" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>상호명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -471,16 +470,28 @@
   </si>
   <si>
     <t>대구백화점</t>
+  </si>
+  <si>
+    <t>비지트인뉴욕(VISIT IN NEWYORK) (비지트인뉴욕) 22Winter 더블 기모</t>
+  </si>
+  <si>
+    <t>2648865369 </t>
+  </si>
+  <si>
+    <t>롯데 홈쇼핑</t>
+  </si>
+  <si>
+    <t>LBL 시그니처 홀가먼트 퓨어캐시미어100 반하이넥 풀오버</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +591,12 @@
     </font>
     <font>
       <sz val="21"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -651,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +716,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -980,14 +1000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -996,7 +1016,7 @@
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1042,7 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="31.5">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1060,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="78.75">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="78.75">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1088,7 @@
         <v>38900</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="54">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1102,7 @@
         <v>58900</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="52.5">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="78.75">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1130,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="78.75">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1124,7 +1144,7 @@
         <v>57900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="52.5">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="52.5">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -1152,7 +1172,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="52.5">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1186,7 @@
         <v>34900</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="80.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="80.25">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1180,7 +1200,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="52.5">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1194,7 +1214,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="52.5">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1208,7 +1228,7 @@
         <v>59100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="78.75">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1222,7 +1242,7 @@
         <v>32900</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="78.75">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -1236,7 +1256,7 @@
         <v>66900</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="78.75">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1250,7 +1270,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="52.5">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1262,6 +1282,28 @@
       </c>
       <c r="D18" s="13">
         <v>25500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="78.75">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="13">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.5">
+      <c r="C20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="13">
+        <v>89000</v>
       </c>
     </row>
   </sheetData>
@@ -1270,20 +1312,22 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://minishop.gmarket.co.kr/ecclim0827" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://minishop.gmarket.co.kr/infix8s" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" display="http://minishop.gmarket.co.kr/ecclim0827" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId4" display="http://minishop.gmarket.co.kr/webddle01" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A9" r:id="rId5" display="http://minishop.gmarket.co.kr/kbimall" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A11" r:id="rId6" display="http://minishop.gmarket.co.kr/webddle01" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A12" r:id="rId7" display="http://minishop.gmarket.co.kr/dcollect" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A13" r:id="rId8" display="http://minishop.gmarket.co.kr/dcollect" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A14" r:id="rId9" display="http://minishop.gmarket.co.kr/EnCnana" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A15" r:id="rId10" display="http://minishop.gmarket.co.kr/sejungw" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A16" r:id="rId11" display="http://minishop.gmarket.co.kr/hyungjicom" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A17" r:id="rId12" display="http://minishop.gmarket.co.kr/lottetv1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A18" r:id="rId13" display="http://minishop.gmarket.co.kr/debec" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://minishop.gmarket.co.kr/ecclim0827"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://minishop.gmarket.co.kr/infix8s"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://minishop.gmarket.co.kr/ecclim0827"/>
+    <hyperlink ref="A8" r:id="rId4" display="http://minishop.gmarket.co.kr/webddle01"/>
+    <hyperlink ref="A9" r:id="rId5" display="http://minishop.gmarket.co.kr/kbimall"/>
+    <hyperlink ref="A11" r:id="rId6" display="http://minishop.gmarket.co.kr/webddle01"/>
+    <hyperlink ref="A12" r:id="rId7" display="http://minishop.gmarket.co.kr/dcollect"/>
+    <hyperlink ref="A13" r:id="rId8" display="http://minishop.gmarket.co.kr/dcollect"/>
+    <hyperlink ref="A14" r:id="rId9" display="http://minishop.gmarket.co.kr/EnCnana"/>
+    <hyperlink ref="A15" r:id="rId10" display="http://minishop.gmarket.co.kr/sejungw"/>
+    <hyperlink ref="A16" r:id="rId11" display="http://minishop.gmarket.co.kr/hyungjicom"/>
+    <hyperlink ref="A17" r:id="rId12" display="http://minishop.gmarket.co.kr/lottetv1"/>
+    <hyperlink ref="A18" r:id="rId13" display="http://minishop.gmarket.co.kr/debec"/>
+    <hyperlink ref="A19" r:id="rId14" display="http://minishop.gmarket.co.kr/lottetv1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>